--- a/data/pca/factorExposure/factorExposure_2008-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-11-28.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02037304885281921</v>
+        <v>0.01868157387966838</v>
       </c>
       <c r="C2">
-        <v>-0.01222472890536395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01480366095709234</v>
+      </c>
+      <c r="D2">
+        <v>-0.02120225678025174</v>
+      </c>
+      <c r="E2">
+        <v>-0.00949914111055428</v>
+      </c>
+      <c r="F2">
+        <v>0.003010531319038264</v>
+      </c>
+      <c r="G2">
+        <v>-0.02551094027443685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08112376932653766</v>
+        <v>0.08454736263517941</v>
       </c>
       <c r="C4">
-        <v>-0.08653449055726066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08819902012441992</v>
+      </c>
+      <c r="D4">
+        <v>0.01835930315731326</v>
+      </c>
+      <c r="E4">
+        <v>-0.04310782940823719</v>
+      </c>
+      <c r="F4">
+        <v>-0.09358031449117807</v>
+      </c>
+      <c r="G4">
+        <v>0.0429457760702476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.005529172740121942</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0004219947430335693</v>
+      </c>
+      <c r="D5">
+        <v>0.001579707411363875</v>
+      </c>
+      <c r="E5">
+        <v>0.004935921604912897</v>
+      </c>
+      <c r="F5">
+        <v>0.002025744706483942</v>
+      </c>
+      <c r="G5">
+        <v>0.00140664273068234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1689444224501182</v>
+        <v>0.1704930792458626</v>
       </c>
       <c r="C6">
-        <v>0.01569727551996746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.007890892214704497</v>
+      </c>
+      <c r="D6">
+        <v>0.07050076137523854</v>
+      </c>
+      <c r="E6">
+        <v>0.06912214082821334</v>
+      </c>
+      <c r="F6">
+        <v>-0.05169748155337438</v>
+      </c>
+      <c r="G6">
+        <v>-0.1471096287831614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05180361574326871</v>
+        <v>0.05398119130261183</v>
       </c>
       <c r="C7">
-        <v>-0.05721100874802855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05948123954566255</v>
+      </c>
+      <c r="D7">
+        <v>-0.0002965725176714325</v>
+      </c>
+      <c r="E7">
+        <v>-0.1036644060689758</v>
+      </c>
+      <c r="F7">
+        <v>-0.07031805146359447</v>
+      </c>
+      <c r="G7">
+        <v>0.02951580750610435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0488853012732973</v>
+        <v>0.04730066750331843</v>
       </c>
       <c r="C8">
-        <v>-0.06366080732497159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.06140880437177487</v>
+      </c>
+      <c r="D8">
+        <v>-0.04844007196618637</v>
+      </c>
+      <c r="E8">
+        <v>-0.02632102209854765</v>
+      </c>
+      <c r="F8">
+        <v>0.02607073468679894</v>
+      </c>
+      <c r="G8">
+        <v>0.001744139423084778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0528799755400147</v>
+        <v>0.05878165151089677</v>
       </c>
       <c r="C9">
-        <v>-0.09671363855082916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09645714754987686</v>
+      </c>
+      <c r="D9">
+        <v>0.02168493074188821</v>
+      </c>
+      <c r="E9">
+        <v>-0.04518637476711421</v>
+      </c>
+      <c r="F9">
+        <v>-0.08898606948638134</v>
+      </c>
+      <c r="G9">
+        <v>0.05842037319516628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1238641684856191</v>
+        <v>0.106846009260709</v>
       </c>
       <c r="C10">
-        <v>0.1575276036766363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1394876530551535</v>
+      </c>
+      <c r="D10">
+        <v>-0.08284330368445904</v>
+      </c>
+      <c r="E10">
+        <v>-0.0135063811817413</v>
+      </c>
+      <c r="F10">
+        <v>0.04398023592823901</v>
+      </c>
+      <c r="G10">
+        <v>0.07011334273217197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07918139279320761</v>
+        <v>0.07641964308774611</v>
       </c>
       <c r="C11">
-        <v>-0.1358926100113804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1348421381937879</v>
+      </c>
+      <c r="D11">
+        <v>-0.01274511504021675</v>
+      </c>
+      <c r="E11">
+        <v>-0.0478437144322751</v>
+      </c>
+      <c r="F11">
+        <v>-0.06948477725767194</v>
+      </c>
+      <c r="G11">
+        <v>0.1042780217916445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0805910929692043</v>
+        <v>0.07650223670729196</v>
       </c>
       <c r="C12">
-        <v>-0.1615744120924133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1594869064996824</v>
+      </c>
+      <c r="D12">
+        <v>-0.006065508864419755</v>
+      </c>
+      <c r="E12">
+        <v>-0.06777125212856974</v>
+      </c>
+      <c r="F12">
+        <v>-0.05690524120755412</v>
+      </c>
+      <c r="G12">
+        <v>0.09887640627245048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04010961261421129</v>
+        <v>0.04242332294736093</v>
       </c>
       <c r="C13">
-        <v>-0.07142834055581916</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07522088267668739</v>
+      </c>
+      <c r="D13">
+        <v>-0.01902343247972785</v>
+      </c>
+      <c r="E13">
+        <v>-0.07997730011200962</v>
+      </c>
+      <c r="F13">
+        <v>-0.0423265464139917</v>
+      </c>
+      <c r="G13">
+        <v>0.02778933929501507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02171793015374303</v>
+        <v>0.02402008988844999</v>
       </c>
       <c r="C14">
-        <v>-0.04888588923041077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05185380358952876</v>
+      </c>
+      <c r="D14">
+        <v>-0.0316409662043924</v>
+      </c>
+      <c r="E14">
+        <v>-0.03508450288011873</v>
+      </c>
+      <c r="F14">
+        <v>-0.06770131498581267</v>
+      </c>
+      <c r="G14">
+        <v>0.07326630730958773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03053942029690904</v>
+        <v>0.03077639789065355</v>
       </c>
       <c r="C15">
-        <v>-0.06514853156099591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06281877042095513</v>
+      </c>
+      <c r="D15">
+        <v>0.02718243734874362</v>
+      </c>
+      <c r="E15">
+        <v>-0.04302872330292205</v>
+      </c>
+      <c r="F15">
+        <v>-0.02614123847882634</v>
+      </c>
+      <c r="G15">
+        <v>0.02043166664135511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05822887757469194</v>
+        <v>0.05588199259621236</v>
       </c>
       <c r="C16">
-        <v>-0.1561780303159239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1555849716951694</v>
+      </c>
+      <c r="D16">
+        <v>-0.009504975000743534</v>
+      </c>
+      <c r="E16">
+        <v>-0.02839101927623428</v>
+      </c>
+      <c r="F16">
+        <v>-0.06410796352258136</v>
+      </c>
+      <c r="G16">
+        <v>0.1246020186327157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.009359068799544117</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004403089661432727</v>
+      </c>
+      <c r="D17">
+        <v>0.004776365718179819</v>
+      </c>
+      <c r="E17">
+        <v>-0.002484219623516755</v>
+      </c>
+      <c r="F17">
+        <v>0.01748324154862119</v>
+      </c>
+      <c r="G17">
+        <v>0.001356371844302931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.05227533388100765</v>
+        <v>0.06155901799802325</v>
       </c>
       <c r="C18">
-        <v>-0.05444837489059248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04919939559330946</v>
+      </c>
+      <c r="D18">
+        <v>0.03113155420820529</v>
+      </c>
+      <c r="E18">
+        <v>0.06752845887438705</v>
+      </c>
+      <c r="F18">
+        <v>0.02082376267540115</v>
+      </c>
+      <c r="G18">
+        <v>-0.1950782840080413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05987778718172065</v>
+        <v>0.05865232863980179</v>
       </c>
       <c r="C20">
-        <v>-0.1113982497088724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1078681196450846</v>
+      </c>
+      <c r="D20">
+        <v>0.01161764731818929</v>
+      </c>
+      <c r="E20">
+        <v>-0.06146754098464507</v>
+      </c>
+      <c r="F20">
+        <v>-0.0515281902589534</v>
+      </c>
+      <c r="G20">
+        <v>0.05488032990005724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04018993232052463</v>
+        <v>0.04278041563716098</v>
       </c>
       <c r="C21">
-        <v>-0.07231344096116768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06832603365218334</v>
+      </c>
+      <c r="D21">
+        <v>-0.009594150537045099</v>
+      </c>
+      <c r="E21">
+        <v>-0.03583810684371016</v>
+      </c>
+      <c r="F21">
+        <v>-0.05259908503647786</v>
+      </c>
+      <c r="G21">
+        <v>0.08360528485870775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04581319958099204</v>
+        <v>0.04587690274468875</v>
       </c>
       <c r="C22">
-        <v>-0.03985033507829431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04425971409240153</v>
+      </c>
+      <c r="D22">
+        <v>-0.09383003456613087</v>
+      </c>
+      <c r="E22">
+        <v>0.1848645261998124</v>
+      </c>
+      <c r="F22">
+        <v>0.07032225379383257</v>
+      </c>
+      <c r="G22">
+        <v>0.0411930375997578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04582415679104466</v>
+        <v>0.04588639236738005</v>
       </c>
       <c r="C23">
-        <v>-0.03984303202770316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04425348811177469</v>
+      </c>
+      <c r="D23">
+        <v>-0.09387674290189196</v>
+      </c>
+      <c r="E23">
+        <v>0.1849060149128122</v>
+      </c>
+      <c r="F23">
+        <v>0.07037618135985291</v>
+      </c>
+      <c r="G23">
+        <v>0.04119754895688931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0639698039907203</v>
+        <v>0.06262847527063531</v>
       </c>
       <c r="C24">
-        <v>-0.139913523656103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1364504956231704</v>
+      </c>
+      <c r="D24">
+        <v>-0.006189157293471539</v>
+      </c>
+      <c r="E24">
+        <v>-0.04717454280116846</v>
+      </c>
+      <c r="F24">
+        <v>-0.06330011367773503</v>
+      </c>
+      <c r="G24">
+        <v>0.06345628539050967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07548647773529572</v>
+        <v>0.07229166656121279</v>
       </c>
       <c r="C25">
-        <v>-0.118209761313749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1172352624558013</v>
+      </c>
+      <c r="D25">
+        <v>-0.008856804194772321</v>
+      </c>
+      <c r="E25">
+        <v>-0.07944872090196177</v>
+      </c>
+      <c r="F25">
+        <v>-0.07400829216358489</v>
+      </c>
+      <c r="G25">
+        <v>0.09290459038547172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.06127155619392274</v>
+        <v>0.06455119289118863</v>
       </c>
       <c r="C26">
-        <v>-0.07064546456483899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0747910995964742</v>
+      </c>
+      <c r="D26">
+        <v>-0.03140212282051546</v>
+      </c>
+      <c r="E26">
+        <v>-0.07723471255272643</v>
+      </c>
+      <c r="F26">
+        <v>-0.05041282290068271</v>
+      </c>
+      <c r="G26">
+        <v>0.1311291273108132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1666849697387159</v>
+        <v>0.1723040802398722</v>
       </c>
       <c r="C28">
-        <v>0.2300377212388011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2323956492244618</v>
+      </c>
+      <c r="D28">
+        <v>-0.08474059485489498</v>
+      </c>
+      <c r="E28">
+        <v>-0.125606719149185</v>
+      </c>
+      <c r="F28">
+        <v>-0.03166994572623839</v>
+      </c>
+      <c r="G28">
+        <v>0.09625091076558943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02901153489297073</v>
+        <v>0.03019644688206398</v>
       </c>
       <c r="C29">
-        <v>-0.05483516259805488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05590878839527098</v>
+      </c>
+      <c r="D29">
+        <v>-0.04920496501546693</v>
+      </c>
+      <c r="E29">
+        <v>-0.02776989081370779</v>
+      </c>
+      <c r="F29">
+        <v>-0.05463683198142177</v>
+      </c>
+      <c r="G29">
+        <v>0.06236388338266571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02624777625985133</v>
+        <v>0.03049164310481351</v>
       </c>
       <c r="C30">
-        <v>-0.07034664177886021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07511053924728212</v>
+      </c>
+      <c r="D30">
+        <v>0.04720916165388185</v>
+      </c>
+      <c r="E30">
+        <v>-0.1194890314231769</v>
+      </c>
+      <c r="F30">
+        <v>-0.06974334861176915</v>
+      </c>
+      <c r="G30">
+        <v>0.02090265252158507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05852104899984452</v>
+        <v>0.0566639294926372</v>
       </c>
       <c r="C31">
-        <v>-0.03365490058173813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03631980075414765</v>
+      </c>
+      <c r="D31">
+        <v>-0.02258913912294391</v>
+      </c>
+      <c r="E31">
+        <v>0.03876721877181911</v>
+      </c>
+      <c r="F31">
+        <v>-0.04550390249943047</v>
+      </c>
+      <c r="G31">
+        <v>0.04793399735340108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04393923964529799</v>
+        <v>0.04763961991531701</v>
       </c>
       <c r="C32">
-        <v>-0.05329033742873578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05003518922090311</v>
+      </c>
+      <c r="D32">
+        <v>0.007319622621410154</v>
+      </c>
+      <c r="E32">
+        <v>-0.04287536662398721</v>
+      </c>
+      <c r="F32">
+        <v>-0.001976746898265641</v>
+      </c>
+      <c r="G32">
+        <v>0.045296530907463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07737098758728142</v>
+        <v>0.08112866494928789</v>
       </c>
       <c r="C33">
-        <v>-0.1182392573859991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1257859225809161</v>
+      </c>
+      <c r="D33">
+        <v>-0.01955104071173597</v>
+      </c>
+      <c r="E33">
+        <v>-0.04312746850206445</v>
+      </c>
+      <c r="F33">
+        <v>-0.03999204357330127</v>
+      </c>
+      <c r="G33">
+        <v>0.02461997572769186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05213686759204415</v>
+        <v>0.05136586060841346</v>
       </c>
       <c r="C34">
-        <v>-0.125852805727753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1249183095672388</v>
+      </c>
+      <c r="D34">
+        <v>0.01307176823352615</v>
+      </c>
+      <c r="E34">
+        <v>-0.02517897107859961</v>
+      </c>
+      <c r="F34">
+        <v>-0.04578983984431398</v>
+      </c>
+      <c r="G34">
+        <v>0.1530020364926949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02576522199709972</v>
+        <v>0.02827793615315117</v>
       </c>
       <c r="C35">
-        <v>-0.01667437059253959</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01985722969341081</v>
+      </c>
+      <c r="D35">
+        <v>-0.007970082260297225</v>
+      </c>
+      <c r="E35">
+        <v>-0.01878758988928937</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004948164149807142</v>
+      </c>
+      <c r="G35">
+        <v>0.04312152842539153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02310121565605769</v>
+        <v>0.02590279844003264</v>
       </c>
       <c r="C36">
-        <v>-0.0535263511795602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.051483915831553</v>
+      </c>
+      <c r="D36">
+        <v>0.0219483795582871</v>
+      </c>
+      <c r="E36">
+        <v>0.01844274383597453</v>
+      </c>
+      <c r="F36">
+        <v>-0.002994517358126806</v>
+      </c>
+      <c r="G36">
+        <v>0.106224394841536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005627402846126198</v>
+        <v>0.005311753579363952</v>
       </c>
       <c r="C37">
-        <v>0.0002408873561379815</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006525449955909634</v>
+      </c>
+      <c r="D37">
+        <v>-0.008017557558277785</v>
+      </c>
+      <c r="E37">
+        <v>-0.00838897601006061</v>
+      </c>
+      <c r="F37">
+        <v>-0.01276203730194162</v>
+      </c>
+      <c r="G37">
+        <v>-0.003568434869133147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08287111419981512</v>
+        <v>0.07694650073854069</v>
       </c>
       <c r="C39">
-        <v>-0.1421821866905283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1368059145136426</v>
+      </c>
+      <c r="D39">
+        <v>-0.06272302718532123</v>
+      </c>
+      <c r="E39">
+        <v>-0.06009186681741203</v>
+      </c>
+      <c r="F39">
+        <v>-0.07953737500089784</v>
+      </c>
+      <c r="G39">
+        <v>0.1716807631373468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05263062975808079</v>
+        <v>0.05418622154804474</v>
       </c>
       <c r="C40">
-        <v>-0.07917756185079378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0846298365068428</v>
+      </c>
+      <c r="D40">
+        <v>-0.01362282359510289</v>
+      </c>
+      <c r="E40">
+        <v>-0.06481586226670832</v>
+      </c>
+      <c r="F40">
+        <v>0.03718167449216493</v>
+      </c>
+      <c r="G40">
+        <v>0.02211613915286073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03434510243412633</v>
+        <v>0.0334374794863994</v>
       </c>
       <c r="C41">
-        <v>-0.02492167042125538</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02712093771416589</v>
+      </c>
+      <c r="D41">
+        <v>9.866933790619611e-05</v>
+      </c>
+      <c r="E41">
+        <v>-0.001632237239452067</v>
+      </c>
+      <c r="F41">
+        <v>0.01409179648920691</v>
+      </c>
+      <c r="G41">
+        <v>0.01763758473797975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04932892180047333</v>
+        <v>0.04627659254640729</v>
       </c>
       <c r="C43">
-        <v>-0.04171852561705777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03981789674438651</v>
+      </c>
+      <c r="D43">
+        <v>-0.03909645374520718</v>
+      </c>
+      <c r="E43">
+        <v>0.0283923110203893</v>
+      </c>
+      <c r="F43">
+        <v>-0.01541014332587923</v>
+      </c>
+      <c r="G43">
+        <v>0.06276201026108755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05383883043180818</v>
+        <v>0.05823165656140753</v>
       </c>
       <c r="C44">
-        <v>-0.1020572051400965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1032249572832946</v>
+      </c>
+      <c r="D44">
+        <v>0.0882297933052405</v>
+      </c>
+      <c r="E44">
+        <v>-0.09347215536130168</v>
+      </c>
+      <c r="F44">
+        <v>-0.08461689119513913</v>
+      </c>
+      <c r="G44">
+        <v>0.1289951650488392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0009672212305615967</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006025479193095635</v>
+      </c>
+      <c r="D45">
+        <v>-0.0006159125940696596</v>
+      </c>
+      <c r="E45">
+        <v>0.0001530099652595141</v>
+      </c>
+      <c r="F45">
+        <v>-0.007559553696290618</v>
+      </c>
+      <c r="G45">
+        <v>-0.00638192765729453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0311624553088103</v>
+        <v>0.03154761590927129</v>
       </c>
       <c r="C46">
-        <v>-0.04287531245645278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04182001001988044</v>
+      </c>
+      <c r="D46">
+        <v>-0.05838008398611182</v>
+      </c>
+      <c r="E46">
+        <v>-0.01030695816357268</v>
+      </c>
+      <c r="F46">
+        <v>-0.05211757830075931</v>
+      </c>
+      <c r="G46">
+        <v>0.07454576324033366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05983852671511079</v>
+        <v>0.05669274121023728</v>
       </c>
       <c r="C47">
-        <v>-0.04640321395641549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0448881407512533</v>
+      </c>
+      <c r="D47">
+        <v>-0.03872094800950417</v>
+      </c>
+      <c r="E47">
+        <v>0.1018503879856289</v>
+      </c>
+      <c r="F47">
+        <v>0.004540613821004544</v>
+      </c>
+      <c r="G47">
+        <v>-0.0344971343206988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04974974143487506</v>
+        <v>0.05121721541132976</v>
       </c>
       <c r="C48">
-        <v>-0.06592983674099423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0658517975164877</v>
+      </c>
+      <c r="D48">
+        <v>-0.006731620882729583</v>
+      </c>
+      <c r="E48">
+        <v>-0.04485171671819495</v>
+      </c>
+      <c r="F48">
+        <v>-0.08153465759131291</v>
+      </c>
+      <c r="G48">
+        <v>0.03787606422178672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1769924450510365</v>
+        <v>0.1858048834376995</v>
       </c>
       <c r="C49">
-        <v>0.02936146969716278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02502957314508565</v>
+      </c>
+      <c r="D49">
+        <v>0.06756410331111123</v>
+      </c>
+      <c r="E49">
+        <v>-0.1058352679571462</v>
+      </c>
+      <c r="F49">
+        <v>0.02130075312405169</v>
+      </c>
+      <c r="G49">
+        <v>-0.1557089596664004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05753422889309546</v>
+        <v>0.0565218420443088</v>
       </c>
       <c r="C50">
-        <v>-0.0333232917895773</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03595917876797611</v>
+      </c>
+      <c r="D50">
+        <v>-0.003158154287284228</v>
+      </c>
+      <c r="E50">
+        <v>0.03264107119247912</v>
+      </c>
+      <c r="F50">
+        <v>-0.05744591833775493</v>
+      </c>
+      <c r="G50">
+        <v>0.03708780894109781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1374348065031879</v>
+        <v>0.1333970334405277</v>
       </c>
       <c r="C52">
-        <v>-0.03507475555163971</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03232531177264642</v>
+      </c>
+      <c r="D52">
+        <v>0.06104088558455299</v>
+      </c>
+      <c r="E52">
+        <v>0.1395540266375783</v>
+      </c>
+      <c r="F52">
+        <v>-0.04541543823574989</v>
+      </c>
+      <c r="G52">
+        <v>0.05523640613231944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1650895078479265</v>
+        <v>0.1591389411793211</v>
       </c>
       <c r="C53">
-        <v>0.01027116678738827</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009463551433603371</v>
+      </c>
+      <c r="D53">
+        <v>0.08916239700719299</v>
+      </c>
+      <c r="E53">
+        <v>0.1853658171028984</v>
+      </c>
+      <c r="F53">
+        <v>-0.07125220797490568</v>
+      </c>
+      <c r="G53">
+        <v>-0.04228995415434903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01294538769019869</v>
+        <v>0.01404769324049276</v>
       </c>
       <c r="C54">
-        <v>-0.04399433064526253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04412562816821623</v>
+      </c>
+      <c r="D54">
+        <v>-0.01463571934822517</v>
+      </c>
+      <c r="E54">
+        <v>-0.03248144850926687</v>
+      </c>
+      <c r="F54">
+        <v>-0.03990602055184354</v>
+      </c>
+      <c r="G54">
+        <v>0.07689579174326222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1192012924320575</v>
+        <v>0.117877242592101</v>
       </c>
       <c r="C55">
-        <v>-0.01274725473836542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01281368117231118</v>
+      </c>
+      <c r="D55">
+        <v>0.0349613739937888</v>
+      </c>
+      <c r="E55">
+        <v>0.1779705125805569</v>
+      </c>
+      <c r="F55">
+        <v>-0.09417199874701378</v>
+      </c>
+      <c r="G55">
+        <v>0.0737218044001339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1808402067457159</v>
+        <v>0.1758833084997234</v>
       </c>
       <c r="C56">
-        <v>0.01049182947405065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01238663224588903</v>
+      </c>
+      <c r="D56">
+        <v>0.09772336489711576</v>
+      </c>
+      <c r="E56">
+        <v>0.2132348072310721</v>
+      </c>
+      <c r="F56">
+        <v>-0.05196258322689443</v>
+      </c>
+      <c r="G56">
+        <v>-0.03478438621010156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04391041340203652</v>
+        <v>0.04360617128581676</v>
       </c>
       <c r="C58">
-        <v>-0.0987690491139105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1094923755335665</v>
+      </c>
+      <c r="D58">
+        <v>-0.04280365320712355</v>
+      </c>
+      <c r="E58">
+        <v>-0.02530413613293813</v>
+      </c>
+      <c r="F58">
+        <v>-0.0343587723564773</v>
+      </c>
+      <c r="G58">
+        <v>0.0589828098248226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.180295180385806</v>
+        <v>0.1870401584222033</v>
       </c>
       <c r="C59">
-        <v>0.1681884891507989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1739175412168634</v>
+      </c>
+      <c r="D59">
+        <v>-0.1063409395267501</v>
+      </c>
+      <c r="E59">
+        <v>-0.05384822522220988</v>
+      </c>
+      <c r="F59">
+        <v>0.016321186548127</v>
+      </c>
+      <c r="G59">
+        <v>0.08122901709290142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2073595633749527</v>
+        <v>0.2054313305105028</v>
       </c>
       <c r="C60">
-        <v>-0.006055817356115705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.009482507318447205</v>
+      </c>
+      <c r="D60">
+        <v>0.07102710538398595</v>
+      </c>
+      <c r="E60">
+        <v>0.01770924627990352</v>
+      </c>
+      <c r="F60">
+        <v>0.0646004712024809</v>
+      </c>
+      <c r="G60">
+        <v>-0.2201811345882984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0538246043022341</v>
+        <v>0.05322578322869943</v>
       </c>
       <c r="C61">
-        <v>-0.1279072580040148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1237744718397712</v>
+      </c>
+      <c r="D61">
+        <v>-0.03151430641008887</v>
+      </c>
+      <c r="E61">
+        <v>-0.07932237150374974</v>
+      </c>
+      <c r="F61">
+        <v>-0.0297552866029408</v>
+      </c>
+      <c r="G61">
+        <v>0.103416675093994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1694356059642214</v>
+        <v>0.1660562267567622</v>
       </c>
       <c r="C62">
-        <v>0.003143464599230198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.003914136005837843</v>
+      </c>
+      <c r="D62">
+        <v>0.06965960260967097</v>
+      </c>
+      <c r="E62">
+        <v>0.1931147520092321</v>
+      </c>
+      <c r="F62">
+        <v>-0.03780759516853746</v>
+      </c>
+      <c r="G62">
+        <v>0.02160524396541806</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0436580721681134</v>
+        <v>0.04587455176709554</v>
       </c>
       <c r="C63">
-        <v>-0.07629443766519216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08016858626112323</v>
+      </c>
+      <c r="D63">
+        <v>-0.01897769566929226</v>
+      </c>
+      <c r="E63">
+        <v>-0.02995312225690014</v>
+      </c>
+      <c r="F63">
+        <v>-0.009259994572082828</v>
+      </c>
+      <c r="G63">
+        <v>0.1065568492021757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1183621646913804</v>
+        <v>0.1156278724123484</v>
       </c>
       <c r="C64">
-        <v>-0.06039066009576907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06165487974085112</v>
+      </c>
+      <c r="D64">
+        <v>0.05591007855327187</v>
+      </c>
+      <c r="E64">
+        <v>0.01298267711647343</v>
+      </c>
+      <c r="F64">
+        <v>-0.01761714023154142</v>
+      </c>
+      <c r="G64">
+        <v>-0.01270065651486944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1558685199322419</v>
+        <v>0.1592743010257668</v>
       </c>
       <c r="C65">
-        <v>0.05780767403619846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04688690374552851</v>
+      </c>
+      <c r="D65">
+        <v>0.02368670849276139</v>
+      </c>
+      <c r="E65">
+        <v>0.04584622872718433</v>
+      </c>
+      <c r="F65">
+        <v>-0.06903503784681261</v>
+      </c>
+      <c r="G65">
+        <v>-0.1464731268069244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0943626690199393</v>
+        <v>0.09012327837595217</v>
       </c>
       <c r="C66">
-        <v>-0.1265206522780057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1247239168974311</v>
+      </c>
+      <c r="D66">
+        <v>-0.03512888845690661</v>
+      </c>
+      <c r="E66">
+        <v>-0.06647535105878415</v>
+      </c>
+      <c r="F66">
+        <v>-0.04164056500428572</v>
+      </c>
+      <c r="G66">
+        <v>0.1491797637266793</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05160890829772272</v>
+        <v>0.0444284916787328</v>
       </c>
       <c r="C67">
-        <v>-0.07864468287838489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.0721107272020991</v>
+      </c>
+      <c r="D67">
+        <v>-0.03869517510821467</v>
+      </c>
+      <c r="E67">
+        <v>0.07560485290136267</v>
+      </c>
+      <c r="F67">
+        <v>0.03192211971630564</v>
+      </c>
+      <c r="G67">
+        <v>0.01215387314003246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1452564892248159</v>
+        <v>0.1459898400001033</v>
       </c>
       <c r="C68">
-        <v>0.2614927420734394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2545626443061551</v>
+      </c>
+      <c r="D68">
+        <v>-0.06333269129574132</v>
+      </c>
+      <c r="E68">
+        <v>-0.1331930524703442</v>
+      </c>
+      <c r="F68">
+        <v>-0.08105060634366214</v>
+      </c>
+      <c r="G68">
+        <v>0.03596127167879111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03904201218092913</v>
+        <v>0.03662880064360113</v>
       </c>
       <c r="C69">
-        <v>-0.0245747943147121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02782867200879081</v>
+      </c>
+      <c r="D69">
+        <v>0.007035003003918574</v>
+      </c>
+      <c r="E69">
+        <v>0.06774774426391791</v>
+      </c>
+      <c r="F69">
+        <v>0.02415535534598951</v>
+      </c>
+      <c r="G69">
+        <v>0.02805822711022538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.08008101133919877</v>
+        <v>0.07787633683260282</v>
       </c>
       <c r="C70">
-        <v>-0.1069991733882626</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1088010907794103</v>
+      </c>
+      <c r="D70">
+        <v>-0.05649817604978929</v>
+      </c>
+      <c r="E70">
+        <v>-0.09883641972811215</v>
+      </c>
+      <c r="F70">
+        <v>0.01268848158240562</v>
+      </c>
+      <c r="G70">
+        <v>-0.02706099567488365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1656555383157659</v>
+        <v>0.1686221693572761</v>
       </c>
       <c r="C71">
-        <v>0.2612152575530528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2581387051443562</v>
+      </c>
+      <c r="D71">
+        <v>-0.0755612264832044</v>
+      </c>
+      <c r="E71">
+        <v>-0.1454288928516396</v>
+      </c>
+      <c r="F71">
+        <v>-0.06636282222189298</v>
+      </c>
+      <c r="G71">
+        <v>0.01289347954114338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1441234806041735</v>
+        <v>0.1497951807022877</v>
       </c>
       <c r="C72">
-        <v>-0.008895682917564263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.007714133933882227</v>
+      </c>
+      <c r="D72">
+        <v>0.01136025090177856</v>
+      </c>
+      <c r="E72">
+        <v>0.1188077107818463</v>
+      </c>
+      <c r="F72">
+        <v>-0.02828623737818843</v>
+      </c>
+      <c r="G72">
+        <v>0.0406996126214433</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1857483154238961</v>
+        <v>0.196444244599303</v>
       </c>
       <c r="C73">
-        <v>-0.02870129127335495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0314870128170901</v>
+      </c>
+      <c r="D73">
+        <v>0.06317121887852621</v>
+      </c>
+      <c r="E73">
+        <v>0.03781673864477465</v>
+      </c>
+      <c r="F73">
+        <v>0.04194570877850053</v>
+      </c>
+      <c r="G73">
+        <v>-0.04741176361623588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08223501515071137</v>
+        <v>0.08222330112298014</v>
       </c>
       <c r="C74">
-        <v>-0.004063471964384932</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.009278710888508216</v>
+      </c>
+      <c r="D74">
+        <v>0.08537019152312091</v>
+      </c>
+      <c r="E74">
+        <v>0.09446548515665006</v>
+      </c>
+      <c r="F74">
+        <v>-0.02591637724407333</v>
+      </c>
+      <c r="G74">
+        <v>-0.007162292418088859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1168994142006253</v>
+        <v>0.1100498343352088</v>
       </c>
       <c r="C75">
-        <v>-0.03079472180415918</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03137734947595833</v>
+      </c>
+      <c r="D75">
+        <v>0.02922874534350755</v>
+      </c>
+      <c r="E75">
+        <v>0.1870939364792494</v>
+      </c>
+      <c r="F75">
+        <v>-0.02099999308554587</v>
+      </c>
+      <c r="G75">
+        <v>-0.00640642965951684</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08112597806869791</v>
+        <v>0.08863433748138413</v>
       </c>
       <c r="C77">
-        <v>-0.1129932520014477</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1202246275983802</v>
+      </c>
+      <c r="D77">
+        <v>0.007267490242773028</v>
+      </c>
+      <c r="E77">
+        <v>-0.1151713275620257</v>
+      </c>
+      <c r="F77">
+        <v>-0.1357841890440117</v>
+      </c>
+      <c r="G77">
+        <v>-0.1623051973942887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07026154768552688</v>
+        <v>0.07776334161555122</v>
       </c>
       <c r="C78">
-        <v>-0.1425059751339085</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1463021257502123</v>
+      </c>
+      <c r="D78">
+        <v>-0.07679533176558019</v>
+      </c>
+      <c r="E78">
+        <v>0.0003727236876136117</v>
+      </c>
+      <c r="F78">
+        <v>-0.09231270412669812</v>
+      </c>
+      <c r="G78">
+        <v>-0.2395401982979507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1682145224896841</v>
+        <v>0.1635395697388441</v>
       </c>
       <c r="C79">
-        <v>-0.02857943092698625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02704511473366058</v>
+      </c>
+      <c r="D79">
+        <v>0.01979011519215797</v>
+      </c>
+      <c r="E79">
+        <v>0.1560407586484947</v>
+      </c>
+      <c r="F79">
+        <v>-0.037172608495625</v>
+      </c>
+      <c r="G79">
+        <v>0.0001357592291993491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07771566736299808</v>
+        <v>0.07316563092161806</v>
       </c>
       <c r="C80">
-        <v>-0.08159017341006272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07758339834058553</v>
+      </c>
+      <c r="D80">
+        <v>-0.04006400296051217</v>
+      </c>
+      <c r="E80">
+        <v>-0.07956101274767706</v>
+      </c>
+      <c r="F80">
+        <v>0.06317598436199851</v>
+      </c>
+      <c r="G80">
+        <v>0.114860101476595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1104197643587184</v>
+        <v>0.1041509508190078</v>
       </c>
       <c r="C81">
-        <v>0.01209695786534659</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01082268728664153</v>
+      </c>
+      <c r="D81">
+        <v>0.01192407548269903</v>
+      </c>
+      <c r="E81">
+        <v>0.1859672469851258</v>
+      </c>
+      <c r="F81">
+        <v>0.0247490918220453</v>
+      </c>
+      <c r="G81">
+        <v>-8.290273333681282e-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1634999102236223</v>
+        <v>0.1592717614859104</v>
       </c>
       <c r="C82">
-        <v>0.0181364109481119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01540407127806263</v>
+      </c>
+      <c r="D82">
+        <v>0.1210655719725458</v>
+      </c>
+      <c r="E82">
+        <v>0.1752054773216682</v>
+      </c>
+      <c r="F82">
+        <v>-0.03840964600944575</v>
+      </c>
+      <c r="G82">
+        <v>-0.02959964107053263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05192048387453922</v>
+        <v>0.04889601045207125</v>
       </c>
       <c r="C83">
-        <v>-0.06182997015192991</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0555749807441654</v>
+      </c>
+      <c r="D83">
+        <v>-0.01790995027378589</v>
+      </c>
+      <c r="E83">
+        <v>-0.0152045678621105</v>
+      </c>
+      <c r="F83">
+        <v>0.02251765789944413</v>
+      </c>
+      <c r="G83">
+        <v>0.05506178816756628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04575184178809137</v>
+        <v>0.0452327840149435</v>
       </c>
       <c r="C84">
-        <v>-0.07696762744345334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07538570714385055</v>
+      </c>
+      <c r="D84">
+        <v>-0.01490241062870439</v>
+      </c>
+      <c r="E84">
+        <v>0.008057179357515766</v>
+      </c>
+      <c r="F84">
+        <v>-0.02876788594059024</v>
+      </c>
+      <c r="G84">
+        <v>0.06257050374347371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1381497505681828</v>
+        <v>0.1332232901110163</v>
       </c>
       <c r="C85">
-        <v>-0.008424287285903659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.007643212145406701</v>
+      </c>
+      <c r="D85">
+        <v>0.05713730932300044</v>
+      </c>
+      <c r="E85">
+        <v>0.1500590834116551</v>
+      </c>
+      <c r="F85">
+        <v>-0.07627135883741266</v>
+      </c>
+      <c r="G85">
+        <v>0.02143802332583254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08598934673029718</v>
+        <v>0.08561975029690978</v>
       </c>
       <c r="C86">
-        <v>-0.1467983937802708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1545528132837315</v>
+      </c>
+      <c r="D86">
+        <v>-0.8459147524527113</v>
+      </c>
+      <c r="E86">
+        <v>0.1344318930603482</v>
+      </c>
+      <c r="F86">
+        <v>0.248337931676342</v>
+      </c>
+      <c r="G86">
+        <v>-0.1123460217451583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.07941818204091279</v>
+        <v>0.07576205165070542</v>
       </c>
       <c r="C87">
-        <v>-0.1003552331129162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09694021614967276</v>
+      </c>
+      <c r="D87">
+        <v>0.0684588664293416</v>
+      </c>
+      <c r="E87">
+        <v>-0.28708695250361</v>
+      </c>
+      <c r="F87">
+        <v>-0.004897824667007261</v>
+      </c>
+      <c r="G87">
+        <v>0.01935143100003312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06193151763685766</v>
+        <v>0.06080652142529805</v>
       </c>
       <c r="C88">
-        <v>-0.06541091087662348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06514092379198685</v>
+      </c>
+      <c r="D88">
+        <v>0.01856621855496567</v>
+      </c>
+      <c r="E88">
+        <v>0.04298218431268354</v>
+      </c>
+      <c r="F88">
+        <v>-0.01726002495450942</v>
+      </c>
+      <c r="G88">
+        <v>-0.006945212573045108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1525730584247267</v>
+        <v>0.1510844376336084</v>
       </c>
       <c r="C89">
-        <v>0.2046342911528343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.210171678839801</v>
+      </c>
+      <c r="D89">
+        <v>-0.03161913154348502</v>
+      </c>
+      <c r="E89">
+        <v>-0.09691838953659897</v>
+      </c>
+      <c r="F89">
+        <v>-0.03368166418386753</v>
+      </c>
+      <c r="G89">
+        <v>0.02480705706613505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1895687095756273</v>
+        <v>0.1909055409559507</v>
       </c>
       <c r="C90">
-        <v>0.2462414146085396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2447767035292959</v>
+      </c>
+      <c r="D90">
+        <v>-0.08672852124674438</v>
+      </c>
+      <c r="E90">
+        <v>-0.1767749401316288</v>
+      </c>
+      <c r="F90">
+        <v>-0.03606886949572138</v>
+      </c>
+      <c r="G90">
+        <v>-0.0395711182158093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1201149136303105</v>
+        <v>0.1144198724668487</v>
       </c>
       <c r="C91">
-        <v>0.01206923637940445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01235187291455066</v>
+      </c>
+      <c r="D91">
+        <v>0.009110453254749157</v>
+      </c>
+      <c r="E91">
+        <v>0.2068521547287964</v>
+      </c>
+      <c r="F91">
+        <v>0.03945545950056905</v>
+      </c>
+      <c r="G91">
+        <v>0.02411181625441434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1699760113744648</v>
+        <v>0.1715510675246494</v>
       </c>
       <c r="C92">
-        <v>0.2643649725712449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.275116458543422</v>
+      </c>
+      <c r="D92">
+        <v>-0.1169254503427964</v>
+      </c>
+      <c r="E92">
+        <v>-0.1477362128357775</v>
+      </c>
+      <c r="F92">
+        <v>-0.07670623353339161</v>
+      </c>
+      <c r="G92">
+        <v>0.1069902836702407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.178833505674228</v>
+        <v>0.1858669170633079</v>
       </c>
       <c r="C93">
-        <v>0.2278657750087515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2289761721660298</v>
+      </c>
+      <c r="D93">
+        <v>-0.06905681979540187</v>
+      </c>
+      <c r="E93">
+        <v>-0.06854176217757127</v>
+      </c>
+      <c r="F93">
+        <v>-0.05884775124515679</v>
+      </c>
+      <c r="G93">
+        <v>0.007004163109115236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1148623588955214</v>
+        <v>0.1100834853965719</v>
       </c>
       <c r="C94">
-        <v>-0.03623963096572737</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03595248324692432</v>
+      </c>
+      <c r="D94">
+        <v>0.02011425654335284</v>
+      </c>
+      <c r="E94">
+        <v>0.162361423650876</v>
+      </c>
+      <c r="F94">
+        <v>-0.02422112785822478</v>
+      </c>
+      <c r="G94">
+        <v>0.02946819454988465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.125158301032529</v>
+        <v>0.1234369933920305</v>
       </c>
       <c r="C95">
-        <v>-0.1018300291434841</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1122367262456671</v>
+      </c>
+      <c r="D95">
+        <v>-0.05209362196513018</v>
+      </c>
+      <c r="E95">
+        <v>-0.0585477673604053</v>
+      </c>
+      <c r="F95">
+        <v>-0.06720796852393007</v>
+      </c>
+      <c r="G95">
+        <v>0.09377659402244319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1263226387901759</v>
+        <v>0.1223495733300439</v>
       </c>
       <c r="C96">
-        <v>-0.1088228218624938</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1120364216438333</v>
+      </c>
+      <c r="D96">
+        <v>0.0314964384101689</v>
+      </c>
+      <c r="E96">
+        <v>-0.02368653538953014</v>
+      </c>
+      <c r="F96">
+        <v>-0.05275265084265078</v>
+      </c>
+      <c r="G96">
+        <v>-0.01830353783452181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2048652535370455</v>
+        <v>0.2095391390032296</v>
       </c>
       <c r="C97">
-        <v>-0.0255936036319924</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01842586300999651</v>
+      </c>
+      <c r="D97">
+        <v>0.2420072834749344</v>
+      </c>
+      <c r="E97">
+        <v>-0.07805486832237872</v>
+      </c>
+      <c r="F97">
+        <v>0.8132148105951496</v>
+      </c>
+      <c r="G97">
+        <v>0.2993853436875878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2031309703833648</v>
+        <v>0.2096854070357541</v>
       </c>
       <c r="C98">
-        <v>-0.0103907907590478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01354698418771947</v>
+      </c>
+      <c r="D98">
+        <v>0.0521725925399865</v>
+      </c>
+      <c r="E98">
+        <v>-0.09435905595739928</v>
+      </c>
+      <c r="F98">
+        <v>0.12225328771796</v>
+      </c>
+      <c r="G98">
+        <v>-0.3213762415944526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05202343991581149</v>
+        <v>0.05195223946668798</v>
       </c>
       <c r="C99">
-        <v>-0.05657603074939472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05642544786814821</v>
+      </c>
+      <c r="D99">
+        <v>-0.0005991137652876574</v>
+      </c>
+      <c r="E99">
+        <v>-0.04094878003873575</v>
+      </c>
+      <c r="F99">
+        <v>-0.0378538040117026</v>
+      </c>
+      <c r="G99">
+        <v>0.01307207698066192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1244933293875042</v>
+        <v>0.1175899791519948</v>
       </c>
       <c r="C100">
-        <v>-0.2739820565887826</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2642882357791162</v>
+      </c>
+      <c r="D100">
+        <v>0.07103526113091264</v>
+      </c>
+      <c r="E100">
+        <v>-0.3048281733665155</v>
+      </c>
+      <c r="F100">
+        <v>0.1600221356889212</v>
+      </c>
+      <c r="G100">
+        <v>-0.4630588432587686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02902732737600746</v>
+        <v>0.03018447525780862</v>
       </c>
       <c r="C101">
-        <v>-0.05411838773220189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05527272551003966</v>
+      </c>
+      <c r="D101">
+        <v>-0.04866584652521544</v>
+      </c>
+      <c r="E101">
+        <v>-0.02472877193552506</v>
+      </c>
+      <c r="F101">
+        <v>-0.05319778386979186</v>
+      </c>
+      <c r="G101">
+        <v>0.05779109252957441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
